--- a/misc/Theatre3.xlsx
+++ b/misc/Theatre3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="256">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t xml:space="preserve">Act128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes</t>
   </si>
   <si>
     <t xml:space="preserve">DCA1</t>
@@ -2092,7 +2095,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2101,82 +2104,85 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2415,7 +2421,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2560,7 +2566,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2589,7 +2595,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2647,7 +2653,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2705,7 +2711,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2763,7 +2769,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2792,7 +2798,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2821,7 +2827,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2879,7 +2885,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2908,7 +2914,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2937,7 +2943,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3024,7 +3030,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3053,7 +3059,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3140,7 +3146,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3227,7 +3233,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3285,7 +3291,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3430,7 +3436,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3459,7 +3465,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3488,7 +3494,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3517,7 +3523,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3546,7 +3552,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3575,7 +3581,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3604,7 +3610,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3633,7 +3639,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3691,7 +3697,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3720,7 +3726,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3749,7 +3755,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3778,7 +3784,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3807,7 +3813,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3865,7 +3871,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3894,7 +3900,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3923,7 +3929,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3952,7 +3958,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3981,7 +3987,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4010,7 +4016,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4039,7 +4045,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4068,7 +4074,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4155,7 +4161,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4184,7 +4190,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4213,7 +4219,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4242,7 +4248,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4271,7 +4277,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4300,7 +4306,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4387,7 +4393,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4416,7 +4422,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4503,7 +4509,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4532,7 +4538,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4590,7 +4596,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4619,7 +4625,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4648,7 +4654,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4677,7 +4683,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4706,7 +4712,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4764,7 +4770,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4822,7 +4828,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4851,7 +4857,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4996,7 +5002,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5025,7 +5031,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5054,7 +5060,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5083,7 +5089,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5152,79 +5158,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AC1" s="7"/>
     </row>
@@ -5338,7 +5344,7 @@
       </c>
       <c r="AC2" s="10" t="n">
         <f aca="false">MATCH(AB2,Overview!A$2:A$101, )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,7 +5472,7 @@
       </c>
       <c r="E4" s="2" t="str">
         <f aca="true">IF($B4=INDIRECT("$Overview.D$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="F4" s="2" t="str">
         <f aca="true">IF($B4=INDIRECT("$Overview.E$" &amp; ($AC$2) +1),"x","")</f>
@@ -5576,7 +5582,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f aca="true">IF($B5=INDIRECT("$Overview.E$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="G5" s="2" t="str">
         <f aca="true">IF($B5=INDIRECT("$Overview.F$" &amp; ($AC$2) +1),"x","")</f>
@@ -5678,7 +5684,7 @@
       </c>
       <c r="E6" s="2" t="str">
         <f aca="true">IF($B6=INDIRECT("$Overview.D$" &amp; ($AC$2) +1),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="str">
         <f aca="true">IF($B6=INDIRECT("$Overview.E$" &amp; ($AC$2) +1),"x","")</f>
@@ -5686,7 +5692,7 @@
       </c>
       <c r="G6" s="2" t="str">
         <f aca="true">IF($B6=INDIRECT("$Overview.F$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="H6" s="2" t="str">
         <f aca="true">IF($B6=INDIRECT("$Overview.G$" &amp; ($AC$2) +1),"x","")</f>
@@ -5788,7 +5794,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f aca="true">IF($B7=INDIRECT("$Overview.E$" &amp; ($AC$2) +1),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="G7" s="2" t="str">
         <f aca="true">IF($B7=INDIRECT("$Overview.F$" &amp; ($AC$2) +1),"x","")</f>
@@ -5796,7 +5802,7 @@
       </c>
       <c r="H7" s="2" t="str">
         <f aca="true">IF($B7=INDIRECT("$Overview.G$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="I7" s="2" t="str">
         <f aca="true">IF($B7=INDIRECT("$Overview.H$" &amp; ($AC$2) +1),"x","")</f>
@@ -5898,7 +5904,7 @@
       </c>
       <c r="G8" s="2" t="str">
         <f aca="true">IF($B8=INDIRECT("$Overview.F$" &amp; ($AC$2) +1),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="H8" s="2" t="str">
         <f aca="true">IF($B8=INDIRECT("$Overview.G$" &amp; ($AC$2) +1),"x","")</f>
@@ -5906,7 +5912,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f aca="true">IF($B8=INDIRECT("$Overview.H$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="J8" s="2" t="str">
         <f aca="true">IF($B8=INDIRECT("$Overview.I$" &amp; ($AC$2) +1),"x","")</f>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="H9" s="2" t="str">
         <f aca="true">IF($B9=INDIRECT("$Overview.G$" &amp; ($AC$2) +1),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="I9" s="2" t="str">
         <f aca="true">IF($B9=INDIRECT("$Overview.H$" &amp; ($AC$2) +1),"x","")</f>
@@ -6016,7 +6022,7 @@
       </c>
       <c r="J9" s="2" t="str">
         <f aca="true">IF($B9=INDIRECT("$Overview.I$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="K9" s="2" t="str">
         <f aca="true">IF($B9=INDIRECT("$Overview.J$" &amp; ($AC$2) +1),"x","")</f>
@@ -6118,7 +6124,7 @@
       </c>
       <c r="I10" s="2" t="str">
         <f aca="true">IF($B10=INDIRECT("$Overview.H$" &amp; ($AC$2) +1),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="J10" s="2" t="str">
         <f aca="true">IF($B10=INDIRECT("$Overview.I$" &amp; ($AC$2) +1),"x","")</f>
@@ -6126,7 +6132,7 @@
       </c>
       <c r="K10" s="2" t="str">
         <f aca="true">IF($B10=INDIRECT("$Overview.J$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="L10" s="2" t="str">
         <f aca="true">IF($B10=INDIRECT("$Overview.K$" &amp; ($AC$2) +1),"x","")</f>
@@ -6236,7 +6242,7 @@
       </c>
       <c r="L11" s="2" t="str">
         <f aca="true">IF($B11=INDIRECT("$Overview.K$" &amp; ($AC$2) +1),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="M11" s="2" t="str">
         <f aca="true">IF($B11=INDIRECT("$Overview.L$" &amp; ($AC$2) +1),"x","")</f>

--- a/misc/Theatre3.xlsx
+++ b/misc/Theatre3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -1031,7 +1031,7 @@
   </sheetPr>
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2090,12 +2090,12 @@
   </sheetPr>
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
